--- a/Descriptive Statistics/Categorical/Diversification_summary.xlsx
+++ b/Descriptive Statistics/Categorical/Diversification_summary.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C2" t="n">
-        <v>83.44</v>
+        <v>83.5</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>16.56</v>
+        <v>16.5</v>
       </c>
     </row>
   </sheetData>

--- a/Descriptive Statistics/Categorical/Diversification_summary.xlsx
+++ b/Descriptive Statistics/Categorical/Diversification_summary.xlsx
@@ -455,10 +455,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="C2" t="n">
-        <v>83.5</v>
+        <v>84.08</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>16.5</v>
+        <v>15.92</v>
       </c>
     </row>
   </sheetData>
